--- a/Report/ExcelRelated/Templates/Certificate.xlsx
+++ b/Report/ExcelRelated/Templates/Certificate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junyu\Source\Repos\AcbControlUpgradeV2\Report\ExcelRelated\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junyu\source\repos\ACBControlHelper\Report\ExcelRelated\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE5AFB-AD6A-49E0-8B70-9BF22FC106FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E67F8D-17F9-4B95-9D1A-FB9ED9889F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>Certificate of Calibration</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Customer</t>
-  </si>
-  <si>
-    <t>Certificate Issue Date</t>
   </si>
   <si>
     <t>Date of Calibration</t>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>www.arbin.com</t>
-  </si>
-  <si>
-    <t>November 14th, 2020</t>
   </si>
   <si>
     <t>November 13th, 2020</t>
@@ -368,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,12 +458,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -592,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -628,9 +616,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -639,15 +624,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -669,34 +663,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -715,19 +681,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,23 +743,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,15 +772,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>717306</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>496764</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>109489</xdr:rowOff>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -819,8 +804,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28576" y="190500"/>
-          <a:ext cx="1114424" cy="1252489"/>
+          <a:off x="717306" y="0"/>
+          <a:ext cx="1230189" cy="1465385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,58 +826,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>109489</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DAB7A66-EE49-4E33-A66F-505E5E1C29BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="28576" y="190500"/>
-          <a:ext cx="1114424" cy="1252489"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -901,8 +834,8 @@
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152361</xdr:rowOff>
     </xdr:to>
@@ -920,7 +853,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -937,6 +870,58 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534864</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25B9166-4535-4C14-8E6A-317B19084F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="752475" y="0"/>
+          <a:ext cx="1230189" cy="1465385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -944,23 +929,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>544389</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>109489</xdr:rowOff>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949292BB-F500-4821-95EC-58CA12A06BBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774A3BBF-8FF9-493A-BC54-D11A1178892C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,8 +962,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28576" y="190500"/>
-          <a:ext cx="1114424" cy="1252489"/>
+          <a:off x="762000" y="0"/>
+          <a:ext cx="1230189" cy="1465385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,23 +986,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534864</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>109489</xdr:rowOff>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCA92F7-81EB-4BDC-BB83-EFE63F5C2EDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E51138-C7B1-409D-834A-B1B82BD8DB57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,8 +1019,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28576" y="190500"/>
-          <a:ext cx="1114424" cy="1252489"/>
+          <a:off x="752475" y="0"/>
+          <a:ext cx="1230189" cy="1465385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1346,56 +1331,56 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1409,88 +1394,88 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
@@ -1538,12 +1523,12 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1551,12 +1536,12 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -1564,19 +1549,19 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -1584,12 +1569,12 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
@@ -1597,45 +1582,45 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="K13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
@@ -1643,78 +1628,78 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
@@ -1722,19 +1707,19 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
@@ -1742,39 +1727,38 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
@@ -1782,19 +1766,19 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
@@ -1802,19 +1786,19 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
@@ -1826,27 +1810,23 @@
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
-      <c r="B24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="W24"/>
@@ -1860,21 +1840,21 @@
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="W25"/>
@@ -1888,29 +1868,29 @@
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26"/>
-      <c r="B26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="K26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
       <c r="W26"/>
       <c r="X26"/>
       <c r="Y26"/>
@@ -1922,23 +1902,23 @@
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
@@ -1950,27 +1930,27 @@
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28"/>
-      <c r="B28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28"/>
@@ -1982,23 +1962,23 @@
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
@@ -2010,27 +1990,27 @@
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30"/>
-      <c r="B30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
@@ -2042,23 +2022,23 @@
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
@@ -2079,14 +2059,14 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
@@ -2107,14 +2087,14 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
@@ -2126,27 +2106,27 @@
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
@@ -2158,23 +2138,23 @@
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
@@ -2186,27 +2166,27 @@
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36"/>
-      <c r="B36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
@@ -2218,10 +2198,10 @@
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -2246,14 +2226,14 @@
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38"/>
-      <c r="B38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="B38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -2278,10 +2258,10 @@
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -2346,805 +2326,805 @@
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="B42" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
+      <c r="B42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
     </row>
     <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
     </row>
     <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
@@ -3187,82 +3167,91 @@
       <c r="R83"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="3"/>
+      <c r="R89" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="3"/>
-      <c r="R89" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="15"/>
+      <c r="R90" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="B28:E29"/>
-    <mergeCell ref="F28:I29"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="K24:P25"/>
+  <mergeCells count="36">
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A4:R5"/>
+    <mergeCell ref="A6:R7"/>
+    <mergeCell ref="F38:J39"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="F13:I14"/>
+    <mergeCell ref="F15:I16"/>
+    <mergeCell ref="K13:R23"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="F11:I12"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B15:E16"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="R89:R90"/>
@@ -3279,22 +3268,12 @@
     <mergeCell ref="B36:E37"/>
     <mergeCell ref="F36:I37"/>
     <mergeCell ref="B26:E27"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A4:R5"/>
-    <mergeCell ref="A6:R7"/>
-    <mergeCell ref="F38:J39"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B24:E25"/>
-    <mergeCell ref="F24:I25"/>
-    <mergeCell ref="F13:I14"/>
-    <mergeCell ref="F15:I16"/>
-    <mergeCell ref="K13:R23"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="F11:I12"/>
-    <mergeCell ref="K11:N12"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="F17:J20"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="F28:I29"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="K24:P25"/>
+    <mergeCell ref="F17:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3314,55 +3293,55 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:P19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -3376,312 +3355,312 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="A9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
@@ -3746,486 +3725,486 @@
       <c r="R22"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
+      <c r="A23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
@@ -4248,48 +4227,48 @@
       <c r="R47"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="A49" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
+      <c r="K49" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50"/>
       <c r="J50"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I51"/>
@@ -4916,77 +4895,82 @@
       <c r="R83"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="3"/>
+      <c r="R89" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="3"/>
-      <c r="R89" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="15"/>
+      <c r="R90" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A4:R5"/>
+    <mergeCell ref="A6:R7"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="R89:R90"/>
@@ -4996,17 +4980,12 @@
     <mergeCell ref="A49:H50"/>
     <mergeCell ref="K49:R50"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A4:R5"/>
-    <mergeCell ref="A6:R7"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A90" r:id="rId1" xr:uid="{5DA54F8E-2F7D-43E7-9374-EE2BA92B3E76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5019,55 +4998,55 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:R10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -5081,134 +5060,134 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="A9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -5232,254 +5211,254 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24" t="s">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
+      <c r="O13" s="32"/>
+      <c r="P13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29">
+        <v>282268384</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="24">
+        <v>45097</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24">
+        <v>45463</v>
+      </c>
+      <c r="O15" s="24"/>
+      <c r="P15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30">
+        <v>297968830</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="25">
+        <v>45097</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25">
+        <v>45463</v>
+      </c>
+      <c r="O17" s="25"/>
+      <c r="P17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30">
+        <v>1102801</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="25">
+        <v>45060</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25">
+        <v>45791</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="P19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28">
-        <v>282268384</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29">
-        <v>44123</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29">
-        <v>44853</v>
-      </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26">
-        <v>297968830</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="30">
-        <v>44125</v>
-      </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30">
-        <v>44855</v>
-      </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="26" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30">
+        <v>1102693</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="25">
+        <v>45062</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25">
+        <v>45793</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26">
-        <v>1102801</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="30">
-        <v>43547</v>
-      </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30">
-        <v>44278</v>
-      </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26">
-        <v>1102693</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="30">
-        <v>43549</v>
-      </c>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30">
-        <v>44280</v>
-      </c>
-      <c r="O21" s="30"/>
-      <c r="P21" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
@@ -6702,93 +6681,83 @@
       <c r="R83"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="3"/>
+      <c r="R89" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="3"/>
-      <c r="R89" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="15"/>
+      <c r="R90" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="P13:R14"/>
-    <mergeCell ref="P15:R16"/>
-    <mergeCell ref="P17:R18"/>
-    <mergeCell ref="P19:R20"/>
-    <mergeCell ref="P21:R22"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A4:R5"/>
+    <mergeCell ref="A6:R7"/>
+    <mergeCell ref="A9:R10"/>
+    <mergeCell ref="A13:H14"/>
+    <mergeCell ref="N13:O14"/>
     <mergeCell ref="I21:K22"/>
     <mergeCell ref="A17:H18"/>
     <mergeCell ref="I19:K20"/>
@@ -6803,19 +6772,29 @@
     <mergeCell ref="L17:M18"/>
     <mergeCell ref="L19:M20"/>
     <mergeCell ref="L21:M22"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A4:R5"/>
-    <mergeCell ref="A6:R7"/>
-    <mergeCell ref="A9:R10"/>
-    <mergeCell ref="A13:H14"/>
-    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="P13:R14"/>
+    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="P17:R18"/>
+    <mergeCell ref="P19:R20"/>
+    <mergeCell ref="P21:R22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A90" r:id="rId1" xr:uid="{CB120BEB-DAF9-42F4-AE3C-84B093B4C2C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -6827,56 +6806,56 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:R7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -6890,212 +6869,212 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38" t="s">
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="36">
         <v>0.12345678</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="36">
-        <v>0.12345678</v>
+        <v>-123.12345678</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36">
@@ -7111,19 +7090,19 @@
       </c>
       <c r="N13" s="36"/>
       <c r="O13" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P13" s="36"/>
       <c r="Q13" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R13" s="36"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -7140,10 +7119,10 @@
       <c r="R14" s="37"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="36">
         <v>0.12345678</v>
       </c>
@@ -7165,19 +7144,19 @@
       </c>
       <c r="N15" s="36"/>
       <c r="O15" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P15" s="36"/>
       <c r="Q15" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -7194,10 +7173,10 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
@@ -7214,10 +7193,10 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -7234,10 +7213,10 @@
       <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -7254,10 +7233,10 @@
       <c r="R19" s="36"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -7274,10 +7253,10 @@
       <c r="R20" s="37"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -7294,10 +7273,10 @@
       <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -7314,10 +7293,10 @@
       <c r="R22" s="37"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -7334,10 +7313,10 @@
       <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -7354,10 +7333,10 @@
       <c r="R24" s="37"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -7374,10 +7353,10 @@
       <c r="R25" s="36"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -7394,10 +7373,10 @@
       <c r="R26" s="37"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
@@ -7414,10 +7393,10 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -7434,10 +7413,10 @@
       <c r="R28" s="37"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
@@ -7454,10 +7433,10 @@
       <c r="R29" s="36"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -7474,10 +7453,10 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -7494,10 +7473,10 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -7514,10 +7493,10 @@
       <c r="R32" s="37"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -7534,10 +7513,10 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -7554,10 +7533,10 @@
       <c r="R34" s="37"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -7574,10 +7553,10 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -7594,10 +7573,10 @@
       <c r="R36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -7614,10 +7593,10 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -7634,10 +7613,10 @@
       <c r="R38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -7654,10 +7633,10 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -7674,10 +7653,10 @@
       <c r="R40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -7694,10 +7673,10 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -7714,10 +7693,10 @@
       <c r="R42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
@@ -7734,10 +7713,10 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -7754,10 +7733,10 @@
       <c r="R44" s="37"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -7774,10 +7753,10 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -7794,10 +7773,10 @@
       <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -7814,10 +7793,10 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -7834,10 +7813,10 @@
       <c r="R48" s="37"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -7854,10 +7833,10 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -7874,10 +7853,10 @@
       <c r="R50" s="37"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -7894,10 +7873,10 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -7914,10 +7893,10 @@
       <c r="R52" s="37"/>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -7934,10 +7913,10 @@
       <c r="R53" s="36"/>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -7954,10 +7933,10 @@
       <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -7974,10 +7953,10 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -7994,10 +7973,10 @@
       <c r="R56" s="37"/>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
@@ -8014,10 +7993,10 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -8034,10 +8013,10 @@
       <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -8054,10 +8033,10 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -8074,10 +8053,10 @@
       <c r="R60" s="37"/>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -8094,10 +8073,10 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -8114,10 +8093,10 @@
       <c r="R62" s="37"/>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -8134,10 +8113,10 @@
       <c r="R63" s="36"/>
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -8154,10 +8133,10 @@
       <c r="R64" s="37"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -8174,10 +8153,10 @@
       <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -8194,10 +8173,10 @@
       <c r="R66" s="37"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
@@ -8214,10 +8193,10 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -8234,10 +8213,10 @@
       <c r="R68" s="37"/>
     </row>
     <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
@@ -8254,10 +8233,10 @@
       <c r="R69" s="36"/>
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -8274,10 +8253,10 @@
       <c r="R70" s="37"/>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
@@ -8294,10 +8273,10 @@
       <c r="R71" s="36"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -8314,10 +8293,10 @@
       <c r="R72" s="37"/>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
@@ -8334,10 +8313,10 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -8354,10 +8333,10 @@
       <c r="R74" s="37"/>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
@@ -8374,10 +8353,10 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -8394,10 +8373,10 @@
       <c r="R76" s="37"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
@@ -8414,10 +8393,10 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -8434,10 +8413,10 @@
       <c r="R78" s="37"/>
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
@@ -8454,10 +8433,10 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -8514,143 +8493,315 @@
       <c r="R82"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="3"/>
+      <c r="R89" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="3"/>
-      <c r="R89" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="15"/>
+      <c r="R90" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="328">
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:L80"/>
-    <mergeCell ref="M79:N80"/>
-    <mergeCell ref="O79:P80"/>
-    <mergeCell ref="Q79:R80"/>
-    <mergeCell ref="O73:P74"/>
-    <mergeCell ref="Q73:R74"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:L76"/>
-    <mergeCell ref="M75:N76"/>
-    <mergeCell ref="O75:P76"/>
-    <mergeCell ref="Q75:R76"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
-    <mergeCell ref="M77:N78"/>
-    <mergeCell ref="O77:P78"/>
-    <mergeCell ref="Q77:R78"/>
-    <mergeCell ref="M73:N74"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="M69:N70"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="Q69:R70"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:L72"/>
-    <mergeCell ref="M71:N72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="Q71:R72"/>
-    <mergeCell ref="M67:N68"/>
-    <mergeCell ref="O67:P68"/>
-    <mergeCell ref="Q67:R68"/>
-    <mergeCell ref="M53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="M57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="G59:H60"/>
-    <mergeCell ref="I59:J60"/>
-    <mergeCell ref="K59:L60"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="M55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q45:R46"/>
-    <mergeCell ref="G47:H48"/>
-    <mergeCell ref="I47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:R44"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:L74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="M61:N62"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:F66"/>
+    <mergeCell ref="G63:H64"/>
+    <mergeCell ref="I63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:H62"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="M63:N64"/>
+    <mergeCell ref="O63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="I65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="G57:H58"/>
+    <mergeCell ref="I57:J58"/>
+    <mergeCell ref="K57:L58"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="G55:H56"/>
+    <mergeCell ref="I55:J56"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="I51:J52"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="G49:H50"/>
+    <mergeCell ref="I49:J50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="G53:H54"/>
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="K53:L54"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:R40"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="O29:P30"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="O31:P32"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="O23:P24"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A4:R5"/>
+    <mergeCell ref="A6:R7"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="Q13:R14"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A9:R10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
     <mergeCell ref="C77:D78"/>
     <mergeCell ref="E77:F78"/>
     <mergeCell ref="C79:D80"/>
@@ -8675,244 +8826,72 @@
     <mergeCell ref="G21:H22"/>
     <mergeCell ref="I21:J22"/>
     <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A4:R5"/>
-    <mergeCell ref="A6:R7"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A9:R10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="O23:P24"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="Q25:R26"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="O29:P30"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="O31:P32"/>
-    <mergeCell ref="Q31:R32"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="Q33:R34"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:R40"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="I51:J52"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="G49:H50"/>
-    <mergeCell ref="I49:J50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="G53:H54"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="K53:L54"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="G57:H58"/>
-    <mergeCell ref="I57:J58"/>
-    <mergeCell ref="K57:L58"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:H56"/>
-    <mergeCell ref="I55:J56"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="M61:N62"/>
-    <mergeCell ref="O61:P62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="A65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:F66"/>
-    <mergeCell ref="G63:H64"/>
-    <mergeCell ref="I63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:H62"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="M63:N64"/>
-    <mergeCell ref="O63:P64"/>
-    <mergeCell ref="Q63:R64"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="I65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:L68"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:L74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="Q45:R46"/>
+    <mergeCell ref="G47:H48"/>
+    <mergeCell ref="I47:J48"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:R44"/>
+    <mergeCell ref="M53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="M57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="G59:H60"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="K59:L60"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="M55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="M69:N70"/>
+    <mergeCell ref="O69:P70"/>
+    <mergeCell ref="Q69:R70"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:L72"/>
+    <mergeCell ref="M71:N72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="Q71:R72"/>
+    <mergeCell ref="M67:N68"/>
+    <mergeCell ref="O67:P68"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:L80"/>
+    <mergeCell ref="M79:N80"/>
+    <mergeCell ref="O79:P80"/>
+    <mergeCell ref="Q79:R80"/>
+    <mergeCell ref="O73:P74"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:L76"/>
+    <mergeCell ref="M75:N76"/>
+    <mergeCell ref="O75:P76"/>
+    <mergeCell ref="Q75:R76"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="M77:N78"/>
+    <mergeCell ref="O77:P78"/>
+    <mergeCell ref="Q77:R78"/>
+    <mergeCell ref="M73:N74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A90" r:id="rId1" xr:uid="{1B8F1A76-CE8A-4181-856B-69A2CCC77EA4}"/>

--- a/Report/ExcelRelated/Templates/Certificate.xlsx
+++ b/Report/ExcelRelated/Templates/Certificate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junyu\source\repos\ACBControlHelper\Report\ExcelRelated\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E67F8D-17F9-4B95-9D1A-FB9ED9889F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281C74F-1A44-43E3-8B10-50920705BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="15" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
     <t>Page4</t>
   </si>
   <si>
@@ -357,12 +354,18 @@
   <si>
     <t>5nV</t>
   </si>
+  <si>
+    <t>100V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,21 +380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -580,39 +568,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -620,110 +659,43 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -731,19 +703,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,15 +989,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>534864</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1019,8 +1021,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="752475" y="0"/>
-          <a:ext cx="1230189" cy="1465385"/>
+          <a:off x="752474" y="0"/>
+          <a:ext cx="1238252" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1882,7 +1884,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="9"/>
       <c r="K26" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -1997,7 +1999,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -2113,7 +2115,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -3221,7 +3223,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="3"/>
       <c r="R89" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3252,7 +3254,8 @@
     <mergeCell ref="K11:N12"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="B15:E16"/>
-    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="B28:E29"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="R89:R90"/>
     <mergeCell ref="A90:F90"/>
@@ -3268,12 +3271,11 @@
     <mergeCell ref="B36:E37"/>
     <mergeCell ref="F36:I37"/>
     <mergeCell ref="B26:E27"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="B28:E29"/>
     <mergeCell ref="F28:I29"/>
     <mergeCell ref="B17:E18"/>
     <mergeCell ref="K24:P25"/>
     <mergeCell ref="F17:J25"/>
+    <mergeCell ref="A88:F88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3726,7 +3728,7 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -4949,7 +4951,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="3"/>
       <c r="R89" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,7 +4987,7 @@
     <hyperlink ref="A90" r:id="rId1" xr:uid="{5DA54F8E-2F7D-43E7-9374-EE2BA92B3E76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="46" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4997,8 +4999,8 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5148,46 +5150,46 @@
       <c r="B8"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -5211,254 +5213,254 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32" t="s">
+      <c r="M13" s="40"/>
+      <c r="N13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="27" t="s">
+      <c r="O13" s="40"/>
+      <c r="P13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44">
         <v>282268384</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="24">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45">
         <v>45097</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45">
         <v>45463</v>
       </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="29" t="s">
+      <c r="O15" s="45"/>
+      <c r="P15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46">
         <v>297968830</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="25">
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47">
         <v>45097</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25">
+      <c r="M17" s="47"/>
+      <c r="N17" s="47">
         <v>45463</v>
       </c>
-      <c r="O17" s="25"/>
-      <c r="P17" s="30" t="s">
+      <c r="O17" s="47"/>
+      <c r="P17" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46">
         <v>1102801</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="25">
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47">
         <v>45060</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47">
         <v>45791</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="30" t="s">
+      <c r="O19" s="47"/>
+      <c r="P19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46">
         <v>1102693</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="25">
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47">
         <v>45062</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25">
+      <c r="M21" s="47"/>
+      <c r="N21" s="47">
         <v>45793</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="30" t="s">
+      <c r="O21" s="47"/>
+      <c r="P21" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
@@ -6735,7 +6737,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="3"/>
       <c r="R89" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6794,7 +6796,7 @@
     <hyperlink ref="A90" r:id="rId1" xr:uid="{CB120BEB-DAF9-42F4-AE3C-84B093B4C2C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="46" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -6806,13 +6808,31 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="1"/>
+    <col min="16" max="16" width="5.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1"/>
+    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6957,1500 +6977,1500 @@
       <c r="B8"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="44" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="42" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42" t="s">
+      <c r="L11" s="36"/>
+      <c r="M11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42" t="s">
+      <c r="N11" s="36"/>
+      <c r="O11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42" t="s">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R11" s="42"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30">
+        <v>-123.12345678</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30">
+        <v>-123.1234</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30">
+        <v>-123.12345678</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30">
+        <v>-123.12345678</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30">
+        <v>-123.12345678</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="30">
         <v>0.12345678</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36">
-        <v>-123.12345678</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30">
         <v>0.12345678</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30">
         <v>0.12345678</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36">
+      <c r="J15" s="30"/>
+      <c r="K15" s="30">
         <v>0.12345678</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="30">
+        <v>0.12345678</v>
+      </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="R13" s="36"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="36">
-        <v>0.12345678</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36">
-        <v>0.12345678</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36">
-        <v>0.12345678</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36">
-        <v>0.12345678</v>
-      </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36">
-        <v>0.12345678</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="30"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
     </row>
     <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
@@ -8547,7 +8567,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="3"/>
       <c r="R89" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8897,7 +8917,7 @@
     <hyperlink ref="A90" r:id="rId1" xr:uid="{1B8F1A76-CE8A-4181-856B-69A2CCC77EA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="46" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Report/ExcelRelated/Templates/Certificate.xlsx
+++ b/Report/ExcelRelated/Templates/Certificate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junyu\source\repos\ACBControlHelper\Report\ExcelRelated\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281C74F-1A44-43E3-8B10-50920705BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44208874-E3D6-4DD0-A21F-3D51B7CFE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="15" r:id="rId1"/>
@@ -355,7 +355,7 @@
     <t>5nV</t>
   </si>
   <si>
-    <t>100V</t>
+    <t>0.0001A</t>
   </si>
 </sst>
 </file>
@@ -600,10 +600,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -620,6 +616,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -649,6 +649,44 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -708,44 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1333,7 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1525,18 +1525,18 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="9"/>
       <c r="K11" s="18" t="s">
         <v>10</v>
@@ -1551,14 +1551,14 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="9"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -1571,137 +1571,137 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
@@ -1709,19 +1709,19 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
@@ -1729,38 +1729,38 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
@@ -1768,19 +1768,19 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
@@ -1788,19 +1788,19 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
@@ -1812,23 +1812,23 @@
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="11" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="W24"/>
@@ -1842,21 +1842,21 @@
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="W25"/>
@@ -1870,29 +1870,29 @@
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
       <c r="W26"/>
       <c r="X26"/>
       <c r="Y26"/>
@@ -1904,23 +1904,23 @@
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
@@ -1932,27 +1932,27 @@
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28"/>
@@ -1964,23 +1964,23 @@
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
@@ -1992,27 +1992,27 @@
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30"/>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
@@ -2024,23 +2024,23 @@
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
@@ -2061,14 +2061,14 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
@@ -2089,14 +2089,14 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
@@ -2108,27 +2108,27 @@
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
@@ -2140,23 +2140,23 @@
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
@@ -2168,27 +2168,27 @@
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36"/>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
@@ -2200,14 +2200,14 @@
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -2228,19 +2228,19 @@
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38"/>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
@@ -2260,15 +2260,15 @@
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -2328,805 +2328,805 @@
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
     </row>
     <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
     </row>
     <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
@@ -3169,74 +3169,74 @@
       <c r="R83"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="3"/>
-      <c r="R89" s="14" t="s">
+      <c r="R89" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="14"/>
+      <c r="R90" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -3256,7 +3256,6 @@
     <mergeCell ref="B15:E16"/>
     <mergeCell ref="F26:I27"/>
     <mergeCell ref="B28:E29"/>
-    <mergeCell ref="A89:F89"/>
     <mergeCell ref="R89:R90"/>
     <mergeCell ref="A90:F90"/>
     <mergeCell ref="K26:R36"/>
@@ -3276,6 +3275,7 @@
     <mergeCell ref="K24:P25"/>
     <mergeCell ref="F17:J25"/>
     <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:F89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4897,74 +4897,74 @@
       <c r="R83"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="3"/>
-      <c r="R89" s="14" t="s">
+      <c r="R89" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="14"/>
+      <c r="R90" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4999,7 +4999,7 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -5150,46 +5150,46 @@
       <c r="B8"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -5213,254 +5213,254 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40" t="s">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="41" t="s">
+      <c r="O13" s="32"/>
+      <c r="P13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29">
         <v>282268384</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="24">
         <v>45097</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45">
+      <c r="M15" s="24"/>
+      <c r="N15" s="24">
         <v>45463</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="44" t="s">
+      <c r="O15" s="24"/>
+      <c r="P15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30">
         <v>297968830</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47">
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="25">
         <v>45097</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47">
+      <c r="M17" s="25"/>
+      <c r="N17" s="25">
         <v>45463</v>
       </c>
-      <c r="O17" s="47"/>
-      <c r="P17" s="46" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30">
         <v>1102801</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47">
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="25">
         <v>45060</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47">
+      <c r="M19" s="25"/>
+      <c r="N19" s="25">
         <v>45791</v>
       </c>
-      <c r="O19" s="47"/>
-      <c r="P19" s="46" t="s">
+      <c r="O19" s="25"/>
+      <c r="P19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30">
         <v>1102693</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="25">
         <v>45062</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47">
+      <c r="M21" s="25"/>
+      <c r="N21" s="25">
         <v>45793</v>
       </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="46" t="s">
+      <c r="O21" s="25"/>
+      <c r="P21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
@@ -6683,74 +6683,74 @@
       <c r="R83"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="3"/>
-      <c r="R89" s="14" t="s">
+      <c r="R89" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="14"/>
+      <c r="R90" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6808,8 +6808,8 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:N26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6817,7 +6817,7 @@
     <col min="1" max="1" width="10.85546875" style="1"/>
     <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1"/>
@@ -6977,1500 +6977,1500 @@
       <c r="B8"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="38" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36" t="s">
+      <c r="N11" s="46"/>
+      <c r="O11" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36" t="s">
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="R11" s="36"/>
+      <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="30">
+      <c r="D13" s="42"/>
+      <c r="E13" s="40">
         <v>-123.12345678</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40">
         <v>-123.1234</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30">
+      <c r="H13" s="40"/>
+      <c r="I13" s="40">
         <v>-123.12345678</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30">
+      <c r="J13" s="40"/>
+      <c r="K13" s="40">
         <v>-123.12345678</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40">
         <v>-123.12345678</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30" t="s">
+      <c r="N13" s="40"/>
+      <c r="O13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30" t="s">
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="30"/>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="30">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="40">
         <v>0.12345678</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40">
         <v>0.12345678</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40">
         <v>0.12345678</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30">
+      <c r="J15" s="40"/>
+      <c r="K15" s="40">
         <v>0.12345678</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30">
+      <c r="L15" s="40"/>
+      <c r="M15" s="40">
         <v>0.12345678</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30" t="s">
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="30"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
     </row>
     <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
@@ -8513,74 +8513,74 @@
       <c r="R82"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="3"/>
-      <c r="R89" s="14" t="s">
+      <c r="R89" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
-      <c r="R90" s="14"/>
+      <c r="R90" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="328">
